--- a/biology/Botanique/Coopérative_vinicole_du_Thor/Coopérative_vinicole_du_Thor.xlsx
+++ b/biology/Botanique/Coopérative_vinicole_du_Thor/Coopérative_vinicole_du_Thor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coop%C3%A9rative_vinicole_du_Thor</t>
+          <t>Coopérative_vinicole_du_Thor</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bâtiment de la coopérative vinicole du Thor, dans le Vaucluse, est un bâtiment regroupant les activités de fabrications et de ventes de vins, pour les coopérateurs de la commune.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coop%C3%A9rative_vinicole_du_Thor</t>
+          <t>Coopérative_vinicole_du_Thor</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fondée en 1925, la coopérative fait construire un bâtiment, sur les plans de l'architecte Georges Salomon. Deux agrandissements auront lieu, en 1932 et 1937. Henri Enjouvin et Fernand Pouillon y ajouteront une distillerie, construite entre 1939 et 1941[1].
-De 1925 à 1979, la cave produisait un peu plus de 26 100 hectolitres de vins annuels, pour 644 coopérateurs, cultivant un total de 500 hectares de vignes[2].
-La cave est labellisée " Architecture contemporaine remarquable " en 2020[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fondée en 1925, la coopérative fait construire un bâtiment, sur les plans de l'architecte Georges Salomon. Deux agrandissements auront lieu, en 1932 et 1937. Henri Enjouvin et Fernand Pouillon y ajouteront une distillerie, construite entre 1939 et 1941.
+De 1925 à 1979, la cave produisait un peu plus de 26 100 hectolitres de vins annuels, pour 644 coopérateurs, cultivant un total de 500 hectares de vignes.
+La cave est labellisée " Architecture contemporaine remarquable " en 2020.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Coop%C3%A9rative_vinicole_du_Thor</t>
+          <t>Coopérative_vinicole_du_Thor</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Descriptif</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La partie centrale du rez-de-chaussée est composée de 2 portes, en plein cintre, protégées par un auvent en tôle ondulée. Un avant-corps, surmonté d'une terrasse bétonnée, abrite la réception. À l'opposé, se situe la boutique et les bureaux. La partie production et embouteillage se situe dans le nord du bâtiment. Un second bâtiment est associé à la cave, et fait office de logement[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La partie centrale du rez-de-chaussée est composée de 2 portes, en plein cintre, protégées par un auvent en tôle ondulée. Un avant-corps, surmonté d'une terrasse bétonnée, abrite la réception. À l'opposé, se situe la boutique et les bureaux. La partie production et embouteillage se situe dans le nord du bâtiment. Un second bâtiment est associé à la cave, et fait office de logement.
 </t>
         </is>
       </c>
